--- a/data/meta.xlsx
+++ b/data/meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daphneweemering/surfdrive/trial participation/trial-participation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52C9DFF-148C-1544-B6CA-CBED355AA51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C1F6FE-20E9-F546-BEFC-164D1169C812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datafile r" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="110">
   <si>
     <t xml:space="preserve">Facilitator </t>
   </si>
@@ -555,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -653,7 +653,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690A2B75-A2FD-D44C-BD68-8D298E978336}">
-  <dimension ref="A1:M273"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="K187" sqref="K187"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3962,7 +3961,7 @@
         <v>74</v>
       </c>
       <c r="E130">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F130">
         <v>105</v>
@@ -4156,71 +4155,71 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="A139" s="37">
         <v>1241</v>
       </c>
-      <c r="B139" t="s">
-        <v>38</v>
-      </c>
-      <c r="C139" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="34" t="s">
+      <c r="B139" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="37">
         <v>3</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="37">
         <v>54</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>1241</v>
+        <v>2066</v>
       </c>
       <c r="B140" t="s">
         <v>38</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D140" s="34" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E140">
-        <v>87</v>
+        <v>559</v>
       </c>
       <c r="F140">
-        <v>105</v>
+        <v>681</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="37">
-        <v>1241</v>
-      </c>
-      <c r="B141" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C141" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E141" s="37">
-        <v>50</v>
-      </c>
-      <c r="F141" s="37">
-        <v>105</v>
-      </c>
-      <c r="G141" s="37">
+      <c r="A141">
+        <v>2066</v>
+      </c>
+      <c r="B141" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E141">
+        <v>336</v>
+      </c>
+      <c r="F141">
+        <v>681</v>
+      </c>
+      <c r="G141">
         <v>0</v>
       </c>
     </row>
@@ -4235,10 +4234,10 @@
         <v>42</v>
       </c>
       <c r="D142" s="34" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E142">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="F142">
         <v>681</v>
@@ -4258,10 +4257,10 @@
         <v>42</v>
       </c>
       <c r="D143" s="34" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E143">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="F143">
         <v>681</v>
@@ -4281,10 +4280,10 @@
         <v>42</v>
       </c>
       <c r="D144" s="34" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E144">
-        <v>567</v>
+        <v>492</v>
       </c>
       <c r="F144">
         <v>681</v>
@@ -4304,10 +4303,10 @@
         <v>42</v>
       </c>
       <c r="D145" s="34" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E145">
-        <v>238</v>
+        <v>605</v>
       </c>
       <c r="F145">
         <v>681</v>
@@ -4317,71 +4316,71 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="A146" s="37">
         <v>2066</v>
       </c>
-      <c r="B146" t="s">
-        <v>38</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="B146" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D146" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E146">
-        <v>492</v>
-      </c>
-      <c r="F146">
+      <c r="D146" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="37">
+        <v>417</v>
+      </c>
+      <c r="F146" s="37">
         <v>681</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B147" t="s">
         <v>38</v>
       </c>
       <c r="C147" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D147" s="34" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E147">
-        <v>605</v>
+        <v>661</v>
       </c>
       <c r="F147">
-        <v>681</v>
+        <v>842</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="37">
-        <v>2066</v>
-      </c>
-      <c r="B148" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C148" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D148" s="38" t="s">
+      <c r="A148">
+        <v>2065</v>
+      </c>
+      <c r="B148" t="s">
+        <v>38</v>
+      </c>
+      <c r="C148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E148" s="37">
-        <v>417</v>
-      </c>
-      <c r="F148" s="37">
-        <v>681</v>
-      </c>
-      <c r="G148" s="37">
+      <c r="E148">
+        <v>519</v>
+      </c>
+      <c r="F148">
+        <v>842</v>
+      </c>
+      <c r="G148">
         <v>0</v>
       </c>
     </row>
@@ -4396,10 +4395,10 @@
         <v>14</v>
       </c>
       <c r="D149" s="34" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E149">
-        <v>661</v>
+        <v>334</v>
       </c>
       <c r="F149">
         <v>842</v>
@@ -4419,10 +4418,10 @@
         <v>14</v>
       </c>
       <c r="D150" s="34" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E150">
-        <v>519</v>
+        <v>366</v>
       </c>
       <c r="F150">
         <v>842</v>
@@ -4442,10 +4441,10 @@
         <v>14</v>
       </c>
       <c r="D151" s="34" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E151">
-        <v>334</v>
+        <v>683</v>
       </c>
       <c r="F151">
         <v>842</v>
@@ -4465,10 +4464,10 @@
         <v>14</v>
       </c>
       <c r="D152" s="34" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E152">
-        <v>366</v>
+        <v>284</v>
       </c>
       <c r="F152">
         <v>842</v>
@@ -4478,31 +4477,31 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="A153" s="37">
         <v>2065</v>
       </c>
-      <c r="B153" t="s">
-        <v>38</v>
-      </c>
-      <c r="C153" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E153">
-        <v>683</v>
-      </c>
-      <c r="F153">
+      <c r="B153" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E153" s="37">
+        <v>644</v>
+      </c>
+      <c r="F153" s="37">
         <v>842</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>2065</v>
+        <v>875</v>
       </c>
       <c r="B154" t="s">
         <v>38</v>
@@ -4514,35 +4513,35 @@
         <v>71</v>
       </c>
       <c r="E154">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="F154">
-        <v>842</v>
+        <v>50</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="37">
-        <v>2065</v>
-      </c>
-      <c r="B155" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C155" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E155" s="37">
-        <v>644</v>
-      </c>
-      <c r="F155" s="37">
-        <v>842</v>
-      </c>
-      <c r="G155" s="37">
+      <c r="A155">
+        <v>875</v>
+      </c>
+      <c r="B155" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E155">
+        <v>11</v>
+      </c>
+      <c r="F155">
+        <v>50</v>
+      </c>
+      <c r="G155">
         <v>0</v>
       </c>
     </row>
@@ -4557,10 +4556,10 @@
         <v>14</v>
       </c>
       <c r="D156" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E156">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F156">
         <v>50</v>
@@ -4569,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>875</v>
       </c>
@@ -4580,10 +4579,10 @@
         <v>14</v>
       </c>
       <c r="D157" s="34" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E157">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F157">
         <v>50</v>
@@ -4593,31 +4592,31 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="A158" s="37">
         <v>875</v>
       </c>
-      <c r="B158" t="s">
-        <v>38</v>
-      </c>
-      <c r="C158" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E158">
-        <v>43</v>
-      </c>
-      <c r="F158">
+      <c r="B158" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C158" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E158" s="37">
+        <v>40</v>
+      </c>
+      <c r="F158" s="37">
         <v>50</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>875</v>
+      <c r="A159" t="s">
+        <v>104</v>
       </c>
       <c r="B159" t="s">
         <v>38</v>
@@ -4629,39 +4628,39 @@
         <v>80</v>
       </c>
       <c r="E159">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F159">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="37">
-        <v>875</v>
-      </c>
-      <c r="B160" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C160" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E160" s="37">
-        <v>40</v>
-      </c>
-      <c r="F160" s="37">
-        <v>50</v>
-      </c>
-      <c r="G160" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>104</v>
+      </c>
+      <c r="B160" t="s">
+        <v>38</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E160">
+        <v>47</v>
+      </c>
+      <c r="F160">
+        <v>101</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>104</v>
       </c>
@@ -4672,10 +4671,10 @@
         <v>14</v>
       </c>
       <c r="D161" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E161">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F161">
         <v>101</v>
@@ -4684,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>104</v>
       </c>
@@ -4695,10 +4694,10 @@
         <v>14</v>
       </c>
       <c r="D162" s="34" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E162">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F162">
         <v>101</v>
@@ -4718,10 +4717,10 @@
         <v>14</v>
       </c>
       <c r="D163" s="34" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E163">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F163">
         <v>101</v>
@@ -4730,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>104</v>
       </c>
@@ -4741,10 +4740,10 @@
         <v>14</v>
       </c>
       <c r="D164" s="34" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E164">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F164">
         <v>101</v>
@@ -4764,10 +4763,10 @@
         <v>14</v>
       </c>
       <c r="D165" s="34" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E165">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F165">
         <v>101</v>
@@ -4787,10 +4786,10 @@
         <v>14</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E166">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F166">
         <v>101</v>
@@ -4799,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>104</v>
       </c>
@@ -4810,10 +4809,10 @@
         <v>14</v>
       </c>
       <c r="D167" s="34" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E167">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F167">
         <v>101</v>
@@ -4826,28 +4825,28 @@
       <c r="A168" t="s">
         <v>104</v>
       </c>
-      <c r="B168" t="s">
-        <v>38</v>
-      </c>
-      <c r="C168" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E168">
-        <v>37</v>
-      </c>
-      <c r="F168">
+      <c r="B168" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="51">
+        <v>82</v>
+      </c>
+      <c r="F168" s="51">
         <v>101</v>
       </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G168" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B169" t="s">
         <v>38</v>
@@ -4856,42 +4855,42 @@
         <v>14</v>
       </c>
       <c r="D169" s="34" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E169">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F169">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>104</v>
-      </c>
-      <c r="B170" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C170" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E170" s="51">
-        <v>82</v>
-      </c>
-      <c r="F170" s="51">
-        <v>101</v>
-      </c>
-      <c r="G170" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="B170" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E170">
+        <v>16</v>
+      </c>
+      <c r="F170">
+        <v>20</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>105</v>
       </c>
@@ -4902,10 +4901,10 @@
         <v>14</v>
       </c>
       <c r="D171" s="34" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E171">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F171">
         <v>20</v>
@@ -4925,10 +4924,10 @@
         <v>14</v>
       </c>
       <c r="D172" s="34" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="E172">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F172">
         <v>20</v>
@@ -4937,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>105</v>
       </c>
@@ -4945,16 +4944,16 @@
         <v>38</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D173" s="34" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E173">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F173">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -4968,16 +4967,16 @@
         <v>38</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D174" s="34" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E174">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F174">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -4994,10 +4993,10 @@
         <v>15</v>
       </c>
       <c r="D175" s="34" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E175">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F175">
         <v>24</v>
@@ -5014,22 +5013,22 @@
         <v>38</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D176" s="34" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="E176">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F176">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>105</v>
       </c>
@@ -5037,91 +5036,91 @@
         <v>38</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D177" s="34" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E177">
         <v>2</v>
       </c>
       <c r="F177">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B178" t="s">
-        <v>38</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="B178" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C178" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D178" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E178">
-        <v>5</v>
-      </c>
-      <c r="F178">
+      <c r="D178" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E178" s="37">
+        <v>2</v>
+      </c>
+      <c r="F178" s="37">
         <v>6</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>105</v>
+    <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>199</v>
       </c>
       <c r="B179" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D179" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E179">
+        <v>44</v>
+      </c>
+      <c r="F179">
+        <v>262</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>199</v>
+      </c>
+      <c r="B180" t="s">
+        <v>45</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E179">
-        <v>2</v>
-      </c>
-      <c r="F179">
-        <v>6</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B180" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C180" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D180" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E180" s="37">
-        <v>2</v>
-      </c>
-      <c r="F180" s="37">
-        <v>6</v>
-      </c>
-      <c r="G180" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="E180">
+        <v>100</v>
+      </c>
+      <c r="F180">
+        <v>262</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>199</v>
       </c>
@@ -5132,10 +5131,10 @@
         <v>14</v>
       </c>
       <c r="D181" s="34" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E181">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="F181">
         <v>262</v>
@@ -5144,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>199</v>
       </c>
@@ -5155,10 +5154,10 @@
         <v>14</v>
       </c>
       <c r="D182" s="34" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E182">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="F182">
         <v>262</v>
@@ -5167,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>199</v>
       </c>
@@ -5178,10 +5177,10 @@
         <v>14</v>
       </c>
       <c r="D183" s="34" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E183">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="F183">
         <v>262</v>
@@ -5190,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>199</v>
       </c>
@@ -5201,10 +5200,10 @@
         <v>14</v>
       </c>
       <c r="D184" s="34" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E184">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F184">
         <v>262</v>
@@ -5213,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>199</v>
       </c>
@@ -5224,10 +5223,10 @@
         <v>14</v>
       </c>
       <c r="D185" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E185">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="F185">
         <v>262</v>
@@ -5236,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>199</v>
       </c>
@@ -5247,10 +5246,10 @@
         <v>14</v>
       </c>
       <c r="D186" s="34" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E186">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F186">
         <v>262</v>
@@ -5259,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>199</v>
       </c>
@@ -5270,10 +5269,10 @@
         <v>14</v>
       </c>
       <c r="D187" s="34" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E187">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="F187">
         <v>262</v>
@@ -5282,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>199</v>
       </c>
@@ -5293,10 +5292,10 @@
         <v>14</v>
       </c>
       <c r="D188" s="34" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E188">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F188">
         <v>262</v>
@@ -5305,78 +5304,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189">
+    <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A189" s="37">
         <v>199</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C189" t="s">
-        <v>14</v>
-      </c>
-      <c r="D189" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E189">
-        <v>76</v>
-      </c>
-      <c r="F189">
+      <c r="C189" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E189" s="37">
+        <v>72</v>
+      </c>
+      <c r="F189" s="37">
         <v>262</v>
       </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>199</v>
+      <c r="G189" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>54</v>
       </c>
       <c r="B190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C190" t="s">
         <v>14</v>
       </c>
       <c r="D190" s="34" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="E190">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="F190">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="G190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="37">
-        <v>199</v>
-      </c>
-      <c r="B191" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C191" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D191" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E191" s="37">
-        <v>72</v>
-      </c>
-      <c r="F191" s="37">
-        <v>262</v>
-      </c>
-      <c r="G191" s="37">
-        <v>0</v>
-      </c>
-      <c r="L191" s="53"/>
-      <c r="M191" s="53"/>
-    </row>
-    <row r="192" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>54</v>
+      </c>
+      <c r="B191" t="s">
+        <v>46</v>
+      </c>
+      <c r="C191" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E191">
+        <v>151</v>
+      </c>
+      <c r="F191">
+        <v>160</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>54</v>
       </c>
@@ -5387,10 +5384,10 @@
         <v>14</v>
       </c>
       <c r="D192" s="34" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E192">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F192">
         <v>160</v>
@@ -5399,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>54</v>
       </c>
@@ -5410,10 +5407,10 @@
         <v>14</v>
       </c>
       <c r="D193" s="34" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E193">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="F193">
         <v>160</v>
@@ -5422,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>54</v>
       </c>
@@ -5433,10 +5430,10 @@
         <v>14</v>
       </c>
       <c r="D194" s="34" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E194">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="F194">
         <v>160</v>
@@ -5445,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>54</v>
       </c>
@@ -5456,10 +5453,10 @@
         <v>14</v>
       </c>
       <c r="D195" s="34" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E195">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="F195">
         <v>160</v>
@@ -5468,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>54</v>
       </c>
@@ -5479,10 +5476,10 @@
         <v>14</v>
       </c>
       <c r="D196" s="34" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E196">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F196">
         <v>160</v>
@@ -5502,10 +5499,10 @@
         <v>14</v>
       </c>
       <c r="D197" s="34" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E197">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F197">
         <v>160</v>
@@ -5525,10 +5522,10 @@
         <v>14</v>
       </c>
       <c r="D198" s="34" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E198">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F198">
         <v>160</v>
@@ -5537,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>54</v>
       </c>
@@ -5548,10 +5545,10 @@
         <v>14</v>
       </c>
       <c r="D199" s="34" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E199">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F199">
         <v>160</v>
@@ -5571,10 +5568,10 @@
         <v>14</v>
       </c>
       <c r="D200" s="34" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E200">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F200">
         <v>160</v>
@@ -5583,72 +5580,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row r="201" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C201" t="s">
-        <v>14</v>
-      </c>
-      <c r="D201" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E201">
-        <v>128</v>
-      </c>
-      <c r="F201">
+      <c r="C201" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E201" s="51">
+        <v>129</v>
+      </c>
+      <c r="F201" s="51">
         <v>160</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B202" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C202" t="s">
         <v>14</v>
       </c>
       <c r="D202" s="34" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="E202">
-        <v>126</v>
+        <v>315</v>
       </c>
       <c r="F202">
-        <v>160</v>
+        <v>319</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B203" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C203" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D203" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E203" s="51">
-        <v>129</v>
-      </c>
-      <c r="F203" s="51">
-        <v>160</v>
-      </c>
-      <c r="G203" s="51">
+      <c r="A203" t="s">
+        <v>55</v>
+      </c>
+      <c r="B203" t="s">
+        <v>38</v>
+      </c>
+      <c r="C203" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E203">
+        <v>309</v>
+      </c>
+      <c r="F203">
+        <v>319</v>
+      </c>
+      <c r="G203">
         <v>0</v>
       </c>
     </row>
@@ -5663,10 +5660,10 @@
         <v>14</v>
       </c>
       <c r="D204" s="34" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E204">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F204">
         <v>319</v>
@@ -5675,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>55</v>
       </c>
@@ -5686,10 +5683,10 @@
         <v>14</v>
       </c>
       <c r="D205" s="34" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E205">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="F205">
         <v>319</v>
@@ -5698,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>55</v>
       </c>
@@ -5709,10 +5706,10 @@
         <v>14</v>
       </c>
       <c r="D206" s="34" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E206">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="F206">
         <v>319</v>
@@ -5721,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>55</v>
       </c>
@@ -5732,10 +5729,10 @@
         <v>14</v>
       </c>
       <c r="D207" s="34" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E207">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="F207">
         <v>319</v>
@@ -5744,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>55</v>
       </c>
@@ -5755,10 +5752,10 @@
         <v>14</v>
       </c>
       <c r="D208" s="34" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E208">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="F208">
         <v>319</v>
@@ -5778,10 +5775,10 @@
         <v>14</v>
       </c>
       <c r="D209" s="34" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E209">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F209">
         <v>319</v>
@@ -5801,10 +5798,10 @@
         <v>14</v>
       </c>
       <c r="D210" s="34" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E210">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="F210">
         <v>319</v>
@@ -5813,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>55</v>
       </c>
@@ -5824,10 +5821,10 @@
         <v>14</v>
       </c>
       <c r="D211" s="34" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E211">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F211">
         <v>319</v>
@@ -5847,10 +5844,10 @@
         <v>14</v>
       </c>
       <c r="D212" s="34" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E212">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="F212">
         <v>319</v>
@@ -5859,72 +5856,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row r="213" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A213" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B213" t="s">
-        <v>38</v>
-      </c>
-      <c r="C213" t="s">
-        <v>14</v>
-      </c>
-      <c r="D213" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E213">
-        <v>281</v>
-      </c>
-      <c r="F213">
+      <c r="B213" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C213" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E213" s="37">
+        <v>280</v>
+      </c>
+      <c r="F213" s="37">
         <v>319</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B214" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C214" t="s">
         <v>14</v>
       </c>
       <c r="D214" s="34" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E214">
-        <v>277</v>
+        <v>8</v>
       </c>
       <c r="F214">
-        <v>319</v>
+        <v>18</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A215" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B215" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C215" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D215" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E215" s="37">
-        <v>280</v>
-      </c>
-      <c r="F215" s="37">
-        <v>319</v>
-      </c>
-      <c r="G215" s="37">
+      <c r="A215" t="s">
+        <v>56</v>
+      </c>
+      <c r="B215" t="s">
+        <v>46</v>
+      </c>
+      <c r="C215" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E215">
+        <v>7</v>
+      </c>
+      <c r="F215">
+        <v>18</v>
+      </c>
+      <c r="G215">
         <v>0</v>
       </c>
     </row>
@@ -5939,10 +5936,10 @@
         <v>14</v>
       </c>
       <c r="D216" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E216">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F216">
         <v>18</v>
@@ -5951,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>56</v>
       </c>
@@ -5962,10 +5959,10 @@
         <v>14</v>
       </c>
       <c r="D217" s="34" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E217">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F217">
         <v>18</v>
@@ -5985,19 +5982,19 @@
         <v>14</v>
       </c>
       <c r="D218" s="34" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E218">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F218">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>56</v>
       </c>
@@ -6008,13 +6005,13 @@
         <v>14</v>
       </c>
       <c r="D219" s="34" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F219">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -6031,10 +6028,10 @@
         <v>14</v>
       </c>
       <c r="D220" s="34" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E220">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F220">
         <v>39</v>
@@ -6044,31 +6041,31 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+      <c r="A221" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C221" t="s">
-        <v>14</v>
-      </c>
-      <c r="D221" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E221">
-        <v>18</v>
-      </c>
-      <c r="F221">
+      <c r="C221" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E221" s="51">
+        <v>17</v>
+      </c>
+      <c r="F221" s="51">
         <v>39</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B222" t="s">
         <v>46</v>
@@ -6077,38 +6074,38 @@
         <v>14</v>
       </c>
       <c r="D222" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E222">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G222">
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A223" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B223" s="51" t="s">
+      <c r="A223" t="s">
+        <v>57</v>
+      </c>
+      <c r="B223" t="s">
         <v>46</v>
       </c>
-      <c r="C223" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D223" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E223" s="51">
-        <v>17</v>
-      </c>
-      <c r="F223" s="51">
-        <v>39</v>
-      </c>
-      <c r="G223" s="51">
+      <c r="C223" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E223">
+        <v>3</v>
+      </c>
+      <c r="F223">
+        <v>13</v>
+      </c>
+      <c r="G223">
         <v>0</v>
       </c>
     </row>
@@ -6123,10 +6120,10 @@
         <v>14</v>
       </c>
       <c r="D224" s="34" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F224">
         <v>13</v>
@@ -6140,16 +6137,16 @@
         <v>57</v>
       </c>
       <c r="B225" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
       </c>
       <c r="D225" s="34" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F225">
         <v>13</v>
@@ -6169,10 +6166,10 @@
         <v>14</v>
       </c>
       <c r="D226" s="34" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F226">
         <v>13</v>
@@ -6181,21 +6178,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>57</v>
       </c>
       <c r="B227" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="C227" t="s">
         <v>14</v>
       </c>
       <c r="D227" s="34" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E227">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F227">
         <v>13</v>
@@ -6215,19 +6212,19 @@
         <v>14</v>
       </c>
       <c r="D228" s="34" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F228">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>57</v>
       </c>
@@ -6238,13 +6235,13 @@
         <v>14</v>
       </c>
       <c r="D229" s="34" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E229">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F229">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6261,10 +6258,10 @@
         <v>14</v>
       </c>
       <c r="D230" s="34" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E230">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F230">
         <v>35</v>
@@ -6273,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>57</v>
       </c>
@@ -6284,10 +6281,10 @@
         <v>14</v>
       </c>
       <c r="D231" s="34" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E231">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F231">
         <v>35</v>
@@ -6297,71 +6294,71 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+      <c r="A232" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C232" t="s">
-        <v>14</v>
-      </c>
-      <c r="D232" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E232">
-        <v>5</v>
-      </c>
-      <c r="F232">
+      <c r="C232" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E232" s="37">
+        <v>15</v>
+      </c>
+      <c r="F232" s="37">
         <v>35</v>
       </c>
-      <c r="G232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>57</v>
+      <c r="G232" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>86</v>
       </c>
       <c r="B233" t="s">
         <v>46</v>
       </c>
       <c r="C233" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D233" s="34" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E233">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F233">
+        <v>40</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>86</v>
+      </c>
+      <c r="B234" t="s">
+        <v>46</v>
+      </c>
+      <c r="C234" t="s">
         <v>35</v>
       </c>
-      <c r="G233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A234" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B234" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C234" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D234" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E234" s="37">
-        <v>15</v>
-      </c>
-      <c r="F234" s="37">
-        <v>35</v>
-      </c>
-      <c r="G234" s="37">
+      <c r="D234" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E234">
+        <v>27</v>
+      </c>
+      <c r="F234">
+        <v>40</v>
+      </c>
+      <c r="G234">
         <v>0</v>
       </c>
     </row>
@@ -6370,16 +6367,16 @@
         <v>86</v>
       </c>
       <c r="B235" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C235" t="s">
         <v>35</v>
       </c>
       <c r="D235" s="34" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E235">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F235">
         <v>40</v>
@@ -6388,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>86</v>
       </c>
@@ -6399,10 +6396,10 @@
         <v>35</v>
       </c>
       <c r="D236" s="34" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E236">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F236">
         <v>40</v>
@@ -6422,10 +6419,10 @@
         <v>35</v>
       </c>
       <c r="D237" s="34" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E237">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F237">
         <v>40</v>
@@ -6434,76 +6431,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A238">
+    <row r="238" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A238" s="37">
         <v>86</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D238" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E238">
-        <v>5</v>
-      </c>
-      <c r="F238">
+      <c r="D238" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E238" s="37">
+        <v>29</v>
+      </c>
+      <c r="F238" s="37">
         <v>40</v>
       </c>
-      <c r="G238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>86</v>
+      <c r="G238" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>107</v>
       </c>
       <c r="B239" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D239" s="34" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E239">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="F239">
-        <v>40</v>
+        <v>443</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A240" s="37">
-        <v>86</v>
-      </c>
-      <c r="B240" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C240" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D240" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E240" s="37">
-        <v>29</v>
-      </c>
-      <c r="F240" s="37">
-        <v>40</v>
-      </c>
-      <c r="G240" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>107</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>14</v>
+      </c>
+      <c r="D240" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E240">
+        <v>308</v>
+      </c>
+      <c r="F240">
+        <v>443</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>107</v>
       </c>
@@ -6514,10 +6511,10 @@
         <v>14</v>
       </c>
       <c r="D241" s="34" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E241">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="F241">
         <v>443</v>
@@ -6537,10 +6534,10 @@
         <v>14</v>
       </c>
       <c r="D242" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E242">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="F242">
         <v>443</v>
@@ -6560,10 +6557,10 @@
         <v>14</v>
       </c>
       <c r="D243" s="34" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E243">
-        <v>257</v>
+        <v>421</v>
       </c>
       <c r="F243">
         <v>443</v>
@@ -6572,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>107</v>
       </c>
@@ -6583,10 +6580,10 @@
         <v>14</v>
       </c>
       <c r="D244" s="34" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E244">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="F244">
         <v>443</v>
@@ -6606,10 +6603,10 @@
         <v>14</v>
       </c>
       <c r="D245" s="34" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E245">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="F245">
         <v>443</v>
@@ -6618,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>107</v>
       </c>
@@ -6629,10 +6626,10 @@
         <v>14</v>
       </c>
       <c r="D246" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E246">
-        <v>412</v>
+        <v>63</v>
       </c>
       <c r="F246">
         <v>443</v>
@@ -6652,10 +6649,10 @@
         <v>14</v>
       </c>
       <c r="D247" s="34" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E247">
-        <v>439</v>
+        <v>49</v>
       </c>
       <c r="F247">
         <v>443</v>
@@ -6675,10 +6672,10 @@
         <v>14</v>
       </c>
       <c r="D248" s="34" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E248">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F248">
         <v>443</v>
@@ -6698,10 +6695,10 @@
         <v>14</v>
       </c>
       <c r="D249" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E249">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F249">
         <v>443</v>
@@ -6710,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>107</v>
       </c>
@@ -6721,10 +6718,10 @@
         <v>14</v>
       </c>
       <c r="D250" s="34" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E250">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F250">
         <v>443</v>
@@ -6734,31 +6731,31 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+      <c r="A251" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B251" t="s">
-        <v>5</v>
-      </c>
-      <c r="C251" t="s">
-        <v>14</v>
-      </c>
-      <c r="D251" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E251">
-        <v>32</v>
-      </c>
-      <c r="F251">
+      <c r="B251" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D251" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E251" s="37">
+        <v>23</v>
+      </c>
+      <c r="F251" s="37">
         <v>443</v>
       </c>
-      <c r="G251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G251" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -6767,38 +6764,38 @@
         <v>14</v>
       </c>
       <c r="D252" s="34" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E252">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F252">
-        <v>443</v>
+        <v>52</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A253" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B253" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C253" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D253" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E253" s="37">
-        <v>23</v>
-      </c>
-      <c r="F253" s="37">
-        <v>443</v>
-      </c>
-      <c r="G253" s="37">
+      <c r="A253" t="s">
+        <v>108</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>14</v>
+      </c>
+      <c r="D253" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253">
+        <v>36</v>
+      </c>
+      <c r="F253">
+        <v>52</v>
+      </c>
+      <c r="G253">
         <v>0</v>
       </c>
     </row>
@@ -6813,10 +6810,10 @@
         <v>14</v>
       </c>
       <c r="D254" s="34" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E254">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F254">
         <v>52</v>
@@ -6836,10 +6833,10 @@
         <v>14</v>
       </c>
       <c r="D255" s="34" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E255">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F255">
         <v>52</v>
@@ -6859,10 +6856,10 @@
         <v>14</v>
       </c>
       <c r="D256" s="34" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E256">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F256">
         <v>52</v>
@@ -6882,10 +6879,10 @@
         <v>14</v>
       </c>
       <c r="D257" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E257">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F257">
         <v>52</v>
@@ -6905,10 +6902,10 @@
         <v>14</v>
       </c>
       <c r="D258" s="34" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E258">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F258">
         <v>52</v>
@@ -6928,10 +6925,10 @@
         <v>14</v>
       </c>
       <c r="D259" s="34" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E259">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F259">
         <v>52</v>
@@ -6951,10 +6948,10 @@
         <v>14</v>
       </c>
       <c r="D260" s="34" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="E260">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F260">
         <v>52</v>
@@ -6974,10 +6971,10 @@
         <v>14</v>
       </c>
       <c r="D261" s="34" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E261">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F261">
         <v>52</v>
@@ -6986,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>108</v>
       </c>
@@ -6997,10 +6994,10 @@
         <v>14</v>
       </c>
       <c r="D262" s="34" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E262">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F262">
         <v>52</v>
@@ -7020,10 +7017,10 @@
         <v>14</v>
       </c>
       <c r="D263" s="34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E263">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F263">
         <v>52</v>
@@ -7032,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>108</v>
       </c>
@@ -7043,10 +7040,10 @@
         <v>14</v>
       </c>
       <c r="D264" s="34" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E264">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F264">
         <v>52</v>
@@ -7066,10 +7063,10 @@
         <v>14</v>
       </c>
       <c r="D265" s="34" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E265">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F265">
         <v>52</v>
@@ -7078,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>108</v>
       </c>
@@ -7089,7 +7086,7 @@
         <v>14</v>
       </c>
       <c r="D266" s="34" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E266">
         <v>5</v>
@@ -7112,10 +7109,10 @@
         <v>14</v>
       </c>
       <c r="D267" s="34" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E267">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F267">
         <v>52</v>
@@ -7124,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>108</v>
       </c>
@@ -7135,10 +7132,10 @@
         <v>14</v>
       </c>
       <c r="D268" s="34" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E268">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F268">
         <v>52</v>
@@ -7158,10 +7155,10 @@
         <v>14</v>
       </c>
       <c r="D269" s="34" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E269">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F269">
         <v>52</v>
@@ -7181,10 +7178,10 @@
         <v>14</v>
       </c>
       <c r="D270" s="34" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E270">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F270">
         <v>52</v>
@@ -7193,72 +7190,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+    <row r="271" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A271" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B271" t="s">
-        <v>5</v>
-      </c>
-      <c r="C271" t="s">
-        <v>14</v>
-      </c>
-      <c r="D271" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E271">
-        <v>7</v>
-      </c>
-      <c r="F271">
+      <c r="B271" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D271" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E271" s="37">
+        <v>3</v>
+      </c>
+      <c r="F271" s="37">
         <v>52</v>
       </c>
-      <c r="G271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>108</v>
-      </c>
-      <c r="B272" t="s">
-        <v>5</v>
-      </c>
-      <c r="C272" t="s">
-        <v>14</v>
-      </c>
-      <c r="D272" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E272">
-        <v>4</v>
-      </c>
-      <c r="F272">
-        <v>52</v>
-      </c>
-      <c r="G272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A273" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B273" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C273" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D273" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E273" s="37">
-        <v>3</v>
-      </c>
-      <c r="F273" s="37">
-        <v>52</v>
-      </c>
-      <c r="G273" s="37">
+      <c r="G271" s="37">
         <v>0</v>
       </c>
     </row>
@@ -7272,7 +7223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J358"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="106" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A173" zoomScale="106" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H248" sqref="H248"/>
     </sheetView>
   </sheetViews>

--- a/data/meta.xlsx
+++ b/data/meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daphneweemering/surfdrive/trial participation/trial-participation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C1F6FE-20E9-F546-BEFC-164D1169C812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFC3724-B539-D546-8153-2E566463AF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690A2B75-A2FD-D44C-BD68-8D298E978336}">
   <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="C264" sqref="C264"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7223,8 +7223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J358"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" zoomScale="106" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H248" sqref="H248"/>
+    <sheetView topLeftCell="A95" zoomScale="106" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/meta.xlsx
+++ b/data/meta.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daphneweemering/surfdrive/trial participation/trial-participation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FAEE7B-E8DE-344B-A5A8-621597AB49F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517A7D51-0FA1-2246-8C75-17CE0D2D71CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8AD5748F-A131-B843-B9AE-B10F3D6CFDF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -265,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -309,7 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -374,6 +373,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB815C7-F840-7F4D-9F09-77E6E8FD6BAD}">
   <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,7 +703,7 @@
     <col min="5" max="6" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -722,305 +723,320 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
         <v>3058</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>14</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
         <v>3058</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>10</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
         <v>3058</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="B4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>3</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="G4" s="39"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
         <v>3058</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="B5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>8</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
         <v>3058</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="B6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>8</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
         <v>3058</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="28">
-        <v>7</v>
-      </c>
-      <c r="F7" s="29">
+      <c r="E7" s="27">
+        <v>7</v>
+      </c>
+      <c r="F7" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
         <v>3058</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="27" t="s">
+      <c r="B8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="28">
-        <v>7</v>
-      </c>
-      <c r="F8" s="29">
+      <c r="E8" s="27">
+        <v>7</v>
+      </c>
+      <c r="F8" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
         <v>3058</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>2</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
         <v>3058</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>10</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
         <v>3058</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>10</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
         <v>3058</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>3</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+      <c r="G12" s="39"/>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
         <v>3058</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="B13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>3</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
         <v>3058</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="B14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <v>2</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="24">
         <v>3058</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="27" t="s">
+      <c r="B15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>4</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="29">
         <v>3058</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="32" t="s">
+      <c r="B16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>3</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="33">
         <v>20</v>
       </c>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -1041,6 +1057,7 @@
       <c r="F17" s="3">
         <v>9</v>
       </c>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
@@ -1061,6 +1078,7 @@
       <c r="F18" s="3">
         <v>9</v>
       </c>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
@@ -1081,6 +1099,7 @@
       <c r="F19" s="3">
         <v>9</v>
       </c>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
@@ -1101,6 +1120,7 @@
       <c r="F20" s="3">
         <v>9</v>
       </c>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
@@ -1121,6 +1141,7 @@
       <c r="F21" s="3">
         <v>9</v>
       </c>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
@@ -1141,6 +1162,7 @@
       <c r="F22" s="11">
         <v>9</v>
       </c>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
@@ -1161,7 +1183,7 @@
       <c r="F23" s="3">
         <v>25</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -1182,6 +1204,7 @@
       <c r="F24" s="3">
         <v>25</v>
       </c>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
@@ -1202,6 +1225,7 @@
       <c r="F25" s="3">
         <v>25</v>
       </c>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
@@ -1222,6 +1246,7 @@
       <c r="F26" s="3">
         <v>25</v>
       </c>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
@@ -1242,6 +1267,7 @@
       <c r="F27" s="3">
         <v>25</v>
       </c>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
@@ -1262,6 +1288,7 @@
       <c r="F28" s="3">
         <v>25</v>
       </c>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
@@ -1282,6 +1309,7 @@
       <c r="F29" s="3">
         <v>25</v>
       </c>
+      <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -1302,6 +1330,7 @@
       <c r="F30" s="3">
         <v>25</v>
       </c>
+      <c r="G30" s="39"/>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
@@ -1322,488 +1351,513 @@
       <c r="F31" s="11">
         <v>25</v>
       </c>
+      <c r="G31" s="39"/>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>634</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="22" t="s">
+      <c r="B32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="23">
         <v>16</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="20">
+      <c r="G32" s="39"/>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="19">
         <v>634</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="22" t="s">
+      <c r="B33" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="23">
         <v>15</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="20">
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="19">
         <v>634</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="B34" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="23">
         <v>5</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="20">
+      <c r="G34" s="39"/>
+    </row>
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="19">
         <v>634</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="22" t="s">
+      <c r="B35" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="23">
         <v>8</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="20">
+      <c r="G35" s="39"/>
+    </row>
+    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="19">
         <v>634</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="22" t="s">
+      <c r="B36" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="23">
         <v>2</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="20">
+      <c r="G36" s="39"/>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="19">
         <v>634</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="22" t="s">
+      <c r="B37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="23">
         <v>2</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="20">
+      <c r="G37" s="39"/>
+    </row>
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="19">
         <v>634</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="22" t="s">
+      <c r="B38" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="23">
         <v>9</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="20">
+      <c r="G38" s="39"/>
+    </row>
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="19">
         <v>634</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="B39" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="23">
         <v>4</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="20">
+      <c r="G39" s="39"/>
+    </row>
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="19">
         <v>634</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="22" t="s">
+      <c r="B40" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="23">
         <v>2</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="20">
+      <c r="G40" s="39"/>
+    </row>
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="19">
         <v>634</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="22" t="s">
+      <c r="B41" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="23">
         <v>4</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="20">
+      <c r="G41" s="39"/>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="19">
         <v>634</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="22" t="s">
+      <c r="B42" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="23">
         <v>3</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="20">
+      <c r="G42" s="39"/>
+    </row>
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="19">
         <v>634</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="22" t="s">
+      <c r="B43" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="23">
         <v>4</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="20">
+      <c r="G43" s="39"/>
+    </row>
+    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="19">
         <v>634</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="22" t="s">
+      <c r="B44" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="23">
         <v>2</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
+      <c r="G44" s="39"/>
+    </row>
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="24">
         <v>634</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="27" t="s">
+      <c r="B45" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="28">
         <v>12</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="25">
+      <c r="G45" s="39"/>
+    </row>
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="24">
         <v>634</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="27" t="s">
+      <c r="B46" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="28">
         <v>8</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
+      <c r="G46" s="39"/>
+    </row>
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="24">
         <v>634</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="27" t="s">
+      <c r="B47" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="28">
         <v>5</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="25">
+      <c r="G47" s="39"/>
+    </row>
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="24">
         <v>634</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="27" t="s">
+      <c r="B48" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="29">
-        <v>6</v>
-      </c>
-      <c r="F48" s="29">
+      <c r="E48" s="28">
+        <v>6</v>
+      </c>
+      <c r="F48" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="25">
+      <c r="G48" s="39"/>
+    </row>
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="24">
         <v>634</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="27" t="s">
+      <c r="B49" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="28">
         <v>2</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="25">
+      <c r="G49" s="39"/>
+    </row>
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="24">
         <v>634</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="27" t="s">
+      <c r="B50" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="28">
         <v>2</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="25">
+      <c r="G50" s="39"/>
+    </row>
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="24">
         <v>634</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="27" t="s">
+      <c r="B51" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="29">
-        <v>6</v>
-      </c>
-      <c r="F51" s="29">
+      <c r="E51" s="28">
+        <v>6</v>
+      </c>
+      <c r="F51" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="25">
+      <c r="G51" s="39"/>
+    </row>
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="24">
         <v>634</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="27" t="s">
+      <c r="B52" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="28">
         <v>3</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="25">
+      <c r="G52" s="39"/>
+    </row>
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="24">
         <v>634</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="27" t="s">
+      <c r="B53" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="28">
         <v>10</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="25">
+      <c r="G53" s="39"/>
+    </row>
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="24">
         <v>634</v>
       </c>
-      <c r="B54" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="27" t="s">
+      <c r="B54" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="28">
         <v>4</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="30">
+      <c r="G54" s="39"/>
+    </row>
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="29">
         <v>634</v>
       </c>
-      <c r="B55" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="32" t="s">
+      <c r="B55" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="33">
         <v>2</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="33">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G55" s="39"/>
+    </row>
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2113</v>
       </c>
@@ -1822,8 +1876,9 @@
       <c r="F56" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G56" s="39"/>
+    </row>
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>2113</v>
       </c>
@@ -1842,8 +1897,9 @@
       <c r="F57" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G57" s="39"/>
+    </row>
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2113</v>
       </c>
@@ -1862,8 +1918,9 @@
       <c r="F58" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G58" s="39"/>
+    </row>
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>2113</v>
       </c>
@@ -1882,8 +1939,9 @@
       <c r="F59" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G59" s="39"/>
+    </row>
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>2113</v>
       </c>
@@ -1902,8 +1960,9 @@
       <c r="F60" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G60" s="39"/>
+    </row>
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>2113</v>
       </c>
@@ -1922,8 +1981,9 @@
       <c r="F61" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G61" s="39"/>
+    </row>
+    <row r="62" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>2113</v>
       </c>
@@ -1942,8 +2002,9 @@
       <c r="F62" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G62" s="39"/>
+    </row>
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>2113</v>
       </c>
@@ -1962,8 +2023,9 @@
       <c r="F63" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G63" s="39"/>
+    </row>
+    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>2113</v>
       </c>
@@ -1982,8 +2044,9 @@
       <c r="F64" s="11">
         <v>44</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G64" s="39"/>
+    </row>
+    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>862</v>
       </c>
@@ -2002,8 +2065,9 @@
       <c r="F65" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G65" s="39"/>
+    </row>
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>862</v>
       </c>
@@ -2022,8 +2086,9 @@
       <c r="F66" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G66" s="39"/>
+    </row>
+    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>862</v>
       </c>
@@ -2036,14 +2101,15 @@
       <c r="D67" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="17">
         <v>3</v>
       </c>
       <c r="F67" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G67" s="39"/>
+    </row>
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>862</v>
       </c>
@@ -2056,14 +2122,15 @@
       <c r="D68" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="17">
         <v>9</v>
       </c>
       <c r="F68" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G68" s="39"/>
+    </row>
+    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>862</v>
       </c>
@@ -2076,14 +2143,15 @@
       <c r="D69" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="17">
         <v>6</v>
       </c>
       <c r="F69" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G69" s="39"/>
+    </row>
+    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>862</v>
       </c>
@@ -2096,14 +2164,15 @@
       <c r="D70" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="17">
         <v>3</v>
       </c>
       <c r="F70" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G70" s="39"/>
+    </row>
+    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>862</v>
       </c>
@@ -2116,14 +2185,15 @@
       <c r="D71" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="17">
         <v>6</v>
       </c>
       <c r="F71" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G71" s="39"/>
+    </row>
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>862</v>
       </c>
@@ -2136,14 +2206,15 @@
       <c r="D72" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="17">
         <v>3</v>
       </c>
       <c r="F72" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G72" s="39"/>
+    </row>
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>862</v>
       </c>
@@ -2156,14 +2227,15 @@
       <c r="D73" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E73" s="18">
         <v>3</v>
       </c>
       <c r="F73" s="11">
         <v>29</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G73" s="39"/>
+    </row>
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>204</v>
       </c>
@@ -2182,8 +2254,9 @@
       <c r="F74" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G74" s="39"/>
+    </row>
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>204</v>
       </c>
@@ -2202,8 +2275,9 @@
       <c r="F75" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G75" s="39"/>
+    </row>
+    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>204</v>
       </c>
@@ -2222,8 +2296,9 @@
       <c r="F76" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G76" s="39"/>
+    </row>
+    <row r="77" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>204</v>
       </c>
@@ -2242,8 +2317,9 @@
       <c r="F77" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G77" s="39"/>
+    </row>
+    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>204</v>
       </c>
@@ -2262,8 +2338,9 @@
       <c r="F78" s="11">
         <v>87</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G78" s="39"/>
+    </row>
+    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>1063</v>
       </c>
@@ -2282,8 +2359,9 @@
       <c r="F79" s="3">
         <v>370</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G79" s="39"/>
+    </row>
+    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>1063</v>
       </c>
@@ -2302,8 +2380,9 @@
       <c r="F80" s="3">
         <v>370</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G80" s="39"/>
+    </row>
+    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>1063</v>
       </c>
@@ -2322,8 +2401,9 @@
       <c r="F81" s="3">
         <v>370</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G81" s="39"/>
+    </row>
+    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>1063</v>
       </c>
@@ -2342,8 +2422,9 @@
       <c r="F82" s="3">
         <v>370</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G82" s="39"/>
+    </row>
+    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>1063</v>
       </c>
@@ -2362,8 +2443,9 @@
       <c r="F83" s="3">
         <v>370</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G83" s="39"/>
+    </row>
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>1063</v>
       </c>
@@ -2382,8 +2464,9 @@
       <c r="F84" s="3">
         <v>370</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G84" s="39"/>
+    </row>
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>1063</v>
       </c>
@@ -2402,8 +2485,9 @@
       <c r="F85" s="11">
         <v>370</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G85" s="39"/>
+    </row>
+    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>2373</v>
       </c>
@@ -2422,8 +2506,9 @@
       <c r="F86" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G86" s="39"/>
+    </row>
+    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>2373</v>
       </c>
@@ -2442,8 +2527,9 @@
       <c r="F87" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G87" s="39"/>
+    </row>
+    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>2373</v>
       </c>
@@ -2462,8 +2548,9 @@
       <c r="F88" s="11">
         <v>54</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G88" s="39"/>
+    </row>
+    <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>778</v>
       </c>
@@ -2482,8 +2569,9 @@
       <c r="F89" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G89" s="39"/>
+    </row>
+    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>778</v>
       </c>
@@ -2502,8 +2590,9 @@
       <c r="F90" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G90" s="39"/>
+    </row>
+    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>778</v>
       </c>
@@ -2522,8 +2611,9 @@
       <c r="F91" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G91" s="39"/>
+    </row>
+    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>778</v>
       </c>
@@ -2542,8 +2632,9 @@
       <c r="F92" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G92" s="39"/>
+    </row>
+    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>778</v>
       </c>
@@ -2562,8 +2653,9 @@
       <c r="F93" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G93" s="39"/>
+    </row>
+    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>778</v>
       </c>
@@ -2582,8 +2674,9 @@
       <c r="F94" s="11">
         <v>117</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G94" s="39"/>
+    </row>
+    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>1505</v>
       </c>
@@ -2602,8 +2695,9 @@
       <c r="F95" s="3">
         <v>235</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G95" s="39"/>
+    </row>
+    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>1505</v>
       </c>
@@ -2622,8 +2716,9 @@
       <c r="F96" s="3">
         <v>235</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G96" s="39"/>
+    </row>
+    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>1505</v>
       </c>
@@ -2642,8 +2737,9 @@
       <c r="F97" s="3">
         <v>235</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G97" s="39"/>
+    </row>
+    <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>1505</v>
       </c>
@@ -2662,8 +2758,9 @@
       <c r="F98" s="11">
         <v>235</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G98" s="39"/>
+    </row>
+    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>2526</v>
       </c>
@@ -2682,8 +2779,9 @@
       <c r="F99" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G99" s="39"/>
+    </row>
+    <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>2526</v>
       </c>
@@ -2702,8 +2800,9 @@
       <c r="F100" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G100" s="39"/>
+    </row>
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>2526</v>
       </c>
@@ -2722,8 +2821,9 @@
       <c r="F101" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G101" s="39"/>
+    </row>
+    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>2526</v>
       </c>
@@ -2742,8 +2842,9 @@
       <c r="F102" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G102" s="39"/>
+    </row>
+    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>2526</v>
       </c>
@@ -2762,8 +2863,9 @@
       <c r="F103" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G103" s="39"/>
+    </row>
+    <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>2526</v>
       </c>
@@ -2782,8 +2884,9 @@
       <c r="F104" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G104" s="39"/>
+    </row>
+    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>2526</v>
       </c>
@@ -2802,8 +2905,9 @@
       <c r="F105" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G105" s="39"/>
+    </row>
+    <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>2526</v>
       </c>
@@ -2822,8 +2926,9 @@
       <c r="F106" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G106" s="39"/>
+    </row>
+    <row r="107" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>2526</v>
       </c>
@@ -2842,8 +2947,9 @@
       <c r="F107" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G107" s="39"/>
+    </row>
+    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>2526</v>
       </c>
@@ -2862,8 +2968,9 @@
       <c r="F108" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G108" s="39"/>
+    </row>
+    <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>2526</v>
       </c>
@@ -2882,8 +2989,9 @@
       <c r="F109" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G109" s="39"/>
+    </row>
+    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>2526</v>
       </c>
@@ -2902,8 +3010,9 @@
       <c r="F110" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G110" s="39"/>
+    </row>
+    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>2526</v>
       </c>
@@ -2922,8 +3031,9 @@
       <c r="F111" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G111" s="39"/>
+    </row>
+    <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>2526</v>
       </c>
@@ -2942,8 +3052,9 @@
       <c r="F112" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G112" s="39"/>
+    </row>
+    <row r="113" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>2526</v>
       </c>
@@ -2962,8 +3073,9 @@
       <c r="F113" s="11">
         <v>91</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G113" s="39"/>
+    </row>
+    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>1635</v>
       </c>
@@ -2982,8 +3094,9 @@
       <c r="F114" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G114" s="39"/>
+    </row>
+    <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>1635</v>
       </c>
@@ -3002,8 +3115,9 @@
       <c r="F115" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G115" s="39"/>
+    </row>
+    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>1635</v>
       </c>
@@ -3022,8 +3136,9 @@
       <c r="F116" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G116" s="39"/>
+    </row>
+    <row r="117" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>1635</v>
       </c>
@@ -3042,8 +3157,9 @@
       <c r="F117" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G117" s="39"/>
+    </row>
+    <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>1635</v>
       </c>
@@ -3062,8 +3178,9 @@
       <c r="F118" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G118" s="39"/>
+    </row>
+    <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>1635</v>
       </c>
@@ -3082,8 +3199,9 @@
       <c r="F119" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G119" s="39"/>
+    </row>
+    <row r="120" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>1635</v>
       </c>
@@ -3102,8 +3220,9 @@
       <c r="F120" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G120" s="39"/>
+    </row>
+    <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>1635</v>
       </c>
@@ -3122,8 +3241,9 @@
       <c r="F121" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G121" s="39"/>
+    </row>
+    <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>1635</v>
       </c>
@@ -3142,8 +3262,9 @@
       <c r="F122" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G122" s="39"/>
+    </row>
+    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>1635</v>
       </c>
@@ -3162,348 +3283,366 @@
       <c r="F123" s="11">
         <v>240</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="20">
+      <c r="G123" s="39"/>
+    </row>
+    <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="19">
         <v>1241</v>
       </c>
-      <c r="B124" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" s="22" t="s">
+      <c r="B124" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E124" s="24">
+      <c r="E124" s="23">
         <v>88</v>
       </c>
-      <c r="F124" s="24">
+      <c r="F124" s="23">
         <v>105</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="20">
+      <c r="G124" s="39"/>
+    </row>
+    <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="19">
         <v>1241</v>
       </c>
-      <c r="B125" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D125" s="22" t="s">
+      <c r="B125" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E125" s="24">
+      <c r="E125" s="23">
         <v>81</v>
       </c>
-      <c r="F125" s="24">
+      <c r="F125" s="23">
         <v>105</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="20">
+      <c r="G125" s="39"/>
+    </row>
+    <row r="126" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" s="19">
         <v>1241</v>
       </c>
-      <c r="B126" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" s="22" t="s">
+      <c r="B126" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E126" s="24">
+      <c r="E126" s="23">
         <v>85</v>
       </c>
-      <c r="F126" s="24">
+      <c r="F126" s="23">
         <v>105</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="20">
+      <c r="G126" s="39"/>
+    </row>
+    <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="19">
         <v>1241</v>
       </c>
-      <c r="B127" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" s="22" t="s">
+      <c r="B127" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E127" s="24">
+      <c r="E127" s="23">
         <v>81</v>
       </c>
-      <c r="F127" s="24">
+      <c r="F127" s="23">
         <v>105</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="20">
+      <c r="G127" s="39"/>
+    </row>
+    <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="19">
         <v>1241</v>
       </c>
-      <c r="B128" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" s="22" t="s">
+      <c r="B128" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E128" s="24">
+      <c r="E128" s="23">
         <v>83</v>
       </c>
-      <c r="F128" s="24">
+      <c r="F128" s="23">
         <v>105</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="25">
+      <c r="G128" s="39"/>
+    </row>
+    <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="24">
         <v>1241</v>
       </c>
-      <c r="B129" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C129" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" s="27" t="s">
+      <c r="B129" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E129" s="29">
+      <c r="E129" s="28">
         <v>40</v>
       </c>
-      <c r="F129" s="29">
+      <c r="F129" s="28">
         <v>64</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="25">
+      <c r="G129" s="39"/>
+    </row>
+    <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="24">
         <v>1241</v>
       </c>
-      <c r="B130" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" s="27" t="s">
+      <c r="B130" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="29">
+      <c r="E130" s="28">
         <v>40</v>
       </c>
-      <c r="F130" s="29">
+      <c r="F130" s="28">
         <v>64</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="25">
+      <c r="G130" s="39"/>
+    </row>
+    <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="24">
         <v>1241</v>
       </c>
-      <c r="B131" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C131" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131" s="27" t="s">
+      <c r="B131" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E131" s="29">
-        <v>38</v>
-      </c>
-      <c r="F131" s="29">
+      <c r="E131" s="28">
+        <v>38</v>
+      </c>
+      <c r="F131" s="28">
         <v>64</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="25">
+      <c r="G131" s="39"/>
+    </row>
+    <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="24">
         <v>1241</v>
       </c>
-      <c r="B132" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C132" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="27" t="s">
+      <c r="B132" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E132" s="29">
+      <c r="E132" s="28">
         <v>14</v>
       </c>
-      <c r="F132" s="29">
+      <c r="F132" s="28">
         <v>64</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="25">
+      <c r="G132" s="39"/>
+    </row>
+    <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="24">
         <v>1241</v>
       </c>
-      <c r="B133" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C133" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133" s="27" t="s">
+      <c r="B133" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E133" s="29">
+      <c r="E133" s="28">
         <v>4</v>
       </c>
-      <c r="F133" s="29">
+      <c r="F133" s="28">
         <v>64</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="25">
+      <c r="G133" s="39"/>
+    </row>
+    <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="24">
         <v>1241</v>
       </c>
-      <c r="B134" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134" s="27" t="s">
+      <c r="B134" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E134" s="29">
+      <c r="E134" s="28">
         <v>21</v>
       </c>
-      <c r="F134" s="29">
+      <c r="F134" s="28">
         <v>64</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="20">
+      <c r="G134" s="39"/>
+    </row>
+    <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="19">
         <v>1241</v>
       </c>
-      <c r="B135" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C135" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135" s="22" t="s">
+      <c r="B135" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E135" s="24">
+      <c r="E135" s="23">
         <v>37</v>
       </c>
-      <c r="F135" s="24">
+      <c r="F135" s="23">
         <v>54</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="20">
+      <c r="G135" s="39"/>
+    </row>
+    <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="19">
         <v>1241</v>
       </c>
-      <c r="B136" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C136" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D136" s="22" t="s">
+      <c r="B136" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E136" s="24">
+      <c r="E136" s="23">
         <v>18</v>
       </c>
-      <c r="F136" s="24">
+      <c r="F136" s="23">
         <v>54</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="20">
+      <c r="G136" s="39"/>
+    </row>
+    <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="19">
         <v>1241</v>
       </c>
-      <c r="B137" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D137" s="22" t="s">
+      <c r="B137" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E137" s="24">
-        <v>13</v>
-      </c>
-      <c r="F137" s="24">
+      <c r="E137" s="23">
+        <v>13</v>
+      </c>
+      <c r="F137" s="23">
         <v>54</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A138" s="20">
+      <c r="G137" s="39"/>
+    </row>
+    <row r="138" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A138" s="19">
         <v>1241</v>
       </c>
-      <c r="B138" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138" s="22" t="s">
+      <c r="B138" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E138" s="24">
+      <c r="E138" s="23">
         <v>4</v>
       </c>
-      <c r="F138" s="24">
+      <c r="F138" s="23">
         <v>54</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="20">
+      <c r="G138" s="39"/>
+    </row>
+    <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="19">
         <v>1241</v>
       </c>
-      <c r="B139" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D139" s="22" t="s">
+      <c r="B139" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E139" s="24">
+      <c r="E139" s="23">
         <v>3</v>
       </c>
-      <c r="F139" s="24">
+      <c r="F139" s="23">
         <v>54</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="35">
+      <c r="G139" s="39"/>
+    </row>
+    <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="34">
         <v>1241</v>
       </c>
-      <c r="B140" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C140" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D140" s="37" t="s">
+      <c r="B140" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E140" s="38">
+      <c r="E140" s="37">
         <v>3</v>
       </c>
-      <c r="F140" s="38">
+      <c r="F140" s="37">
         <v>54</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G140" s="39"/>
+    </row>
+    <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>2066</v>
       </c>
@@ -3522,8 +3661,9 @@
       <c r="F141" s="3">
         <v>672</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G141" s="39"/>
+    </row>
+    <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>2066</v>
       </c>
@@ -3542,8 +3682,9 @@
       <c r="F142" s="3">
         <v>672</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G142" s="39"/>
+    </row>
+    <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>2066</v>
       </c>
@@ -3562,8 +3703,9 @@
       <c r="F143" s="3">
         <v>672</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G143" s="39"/>
+    </row>
+    <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>2066</v>
       </c>
@@ -3582,8 +3724,9 @@
       <c r="F144" s="3">
         <v>672</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G144" s="39"/>
+    </row>
+    <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>2066</v>
       </c>
@@ -3602,8 +3745,9 @@
       <c r="F145" s="3">
         <v>672</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G145" s="39"/>
+    </row>
+    <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>2066</v>
       </c>
@@ -3622,8 +3766,9 @@
       <c r="F146" s="11">
         <v>672</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G146" s="39"/>
+    </row>
+    <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>2065</v>
       </c>
@@ -3642,8 +3787,9 @@
       <c r="F147" s="3">
         <v>842</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G147" s="39"/>
+    </row>
+    <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>2065</v>
       </c>
@@ -3662,8 +3808,9 @@
       <c r="F148" s="3">
         <v>842</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G148" s="39"/>
+    </row>
+    <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>2065</v>
       </c>
@@ -3682,8 +3829,9 @@
       <c r="F149" s="3">
         <v>842</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G149" s="39"/>
+    </row>
+    <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>2065</v>
       </c>
@@ -3702,8 +3850,9 @@
       <c r="F150" s="3">
         <v>842</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G150" s="39"/>
+    </row>
+    <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>2065</v>
       </c>
@@ -3722,8 +3871,9 @@
       <c r="F151" s="3">
         <v>842</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G151" s="39"/>
+    </row>
+    <row r="152" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>2065</v>
       </c>
@@ -3742,408 +3892,429 @@
       <c r="F152" s="11">
         <v>842</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="20">
+      <c r="G152" s="39"/>
+    </row>
+    <row r="153" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="19">
         <v>532</v>
       </c>
-      <c r="B153" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D153" s="22" t="s">
+      <c r="B153" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E153" s="24">
+      <c r="E153" s="23">
         <v>70</v>
       </c>
-      <c r="F153" s="24">
+      <c r="F153" s="23">
         <v>101</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="20">
+      <c r="G153" s="39"/>
+    </row>
+    <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="19">
         <v>532</v>
       </c>
-      <c r="B154" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D154" s="22" t="s">
+      <c r="B154" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="39">
+      <c r="E154" s="38">
         <v>47</v>
       </c>
-      <c r="F154" s="24">
+      <c r="F154" s="23">
         <v>101</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="20">
+      <c r="G154" s="39"/>
+    </row>
+    <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="19">
         <v>532</v>
       </c>
-      <c r="B155" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C155" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D155" s="22" t="s">
+      <c r="B155" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E155" s="39">
+      <c r="E155" s="38">
         <v>77</v>
       </c>
-      <c r="F155" s="24">
+      <c r="F155" s="23">
         <v>101</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A156" s="20">
+      <c r="G155" s="39"/>
+    </row>
+    <row r="156" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A156" s="19">
         <v>532</v>
       </c>
-      <c r="B156" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D156" s="22" t="s">
+      <c r="B156" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E156" s="39">
+      <c r="E156" s="38">
         <v>28</v>
       </c>
-      <c r="F156" s="24">
+      <c r="F156" s="23">
         <v>101</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="20">
+      <c r="G156" s="39"/>
+    </row>
+    <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="19">
         <v>532</v>
       </c>
-      <c r="B157" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C157" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D157" s="22" t="s">
+      <c r="B157" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E157" s="39">
+      <c r="E157" s="38">
         <v>82</v>
       </c>
-      <c r="F157" s="24">
+      <c r="F157" s="23">
         <v>101</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="20">
+      <c r="G157" s="39"/>
+    </row>
+    <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="19">
         <v>532</v>
       </c>
-      <c r="B158" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C158" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D158" s="22" t="s">
+      <c r="B158" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E158" s="39">
+      <c r="E158" s="38">
         <v>36</v>
       </c>
-      <c r="F158" s="24">
+      <c r="F158" s="23">
         <v>101</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="20">
+      <c r="G158" s="39"/>
+    </row>
+    <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="19">
         <v>532</v>
       </c>
-      <c r="B159" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C159" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159" s="22" t="s">
+      <c r="B159" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E159" s="39">
+      <c r="E159" s="38">
         <v>39</v>
       </c>
-      <c r="F159" s="24">
+      <c r="F159" s="23">
         <v>101</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="20">
+      <c r="G159" s="39"/>
+    </row>
+    <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" s="19">
         <v>532</v>
       </c>
-      <c r="B160" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C160" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D160" s="22" t="s">
+      <c r="B160" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E160" s="39">
+      <c r="E160" s="38">
         <v>37</v>
       </c>
-      <c r="F160" s="24">
+      <c r="F160" s="23">
         <v>101</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="20">
+      <c r="G160" s="39"/>
+    </row>
+    <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" s="19">
         <v>532</v>
       </c>
-      <c r="B161" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C161" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D161" s="22" t="s">
+      <c r="B161" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E161" s="24">
+      <c r="E161" s="23">
         <v>29</v>
       </c>
-      <c r="F161" s="24">
+      <c r="F161" s="23">
         <v>101</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="20">
+      <c r="G161" s="39"/>
+    </row>
+    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="19">
         <v>532</v>
       </c>
-      <c r="B162" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C162" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D162" s="22" t="s">
+      <c r="B162" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E162" s="24">
+      <c r="E162" s="23">
         <v>82</v>
       </c>
-      <c r="F162" s="24">
+      <c r="F162" s="23">
         <v>101</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="25">
+      <c r="G162" s="39"/>
+    </row>
+    <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="24">
         <v>532</v>
       </c>
-      <c r="B163" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C163" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" s="27" t="s">
+      <c r="B163" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E163" s="29">
+      <c r="E163" s="28">
         <v>19</v>
       </c>
-      <c r="F163" s="29">
+      <c r="F163" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="25">
+      <c r="G163" s="39"/>
+    </row>
+    <row r="164" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="24">
         <v>532</v>
       </c>
-      <c r="B164" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C164" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D164" s="27" t="s">
+      <c r="B164" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E164" s="29">
+      <c r="E164" s="28">
         <v>16</v>
       </c>
-      <c r="F164" s="29">
+      <c r="F164" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="25">
+      <c r="G164" s="39"/>
+    </row>
+    <row r="165" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" s="24">
         <v>532</v>
       </c>
-      <c r="B165" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C165" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" s="27" t="s">
+      <c r="B165" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C165" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E165" s="29">
+      <c r="E165" s="28">
         <v>2</v>
       </c>
-      <c r="F165" s="29">
+      <c r="F165" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="25">
+      <c r="G165" s="39"/>
+    </row>
+    <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="24">
         <v>532</v>
       </c>
-      <c r="B166" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D166" s="27" t="s">
+      <c r="B166" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E166" s="29">
+      <c r="E166" s="28">
         <v>10</v>
       </c>
-      <c r="F166" s="29">
+      <c r="F166" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="20">
+      <c r="G166" s="39"/>
+    </row>
+    <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="19">
         <v>532</v>
       </c>
-      <c r="B167" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C167" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D167" s="22" t="s">
+      <c r="B167" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E167" s="24">
+      <c r="E167" s="23">
         <v>23</v>
       </c>
-      <c r="F167" s="24">
+      <c r="F167" s="23">
         <v>24</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="20">
+      <c r="G167" s="39"/>
+    </row>
+    <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="19">
         <v>532</v>
       </c>
-      <c r="B168" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C168" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168" s="22" t="s">
+      <c r="B168" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E168" s="24">
+      <c r="E168" s="23">
         <v>23</v>
       </c>
-      <c r="F168" s="24">
+      <c r="F168" s="23">
         <v>24</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="20">
+      <c r="G168" s="39"/>
+    </row>
+    <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="19">
         <v>532</v>
       </c>
-      <c r="B169" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C169" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D169" s="22" t="s">
+      <c r="B169" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E169" s="24">
+      <c r="E169" s="23">
         <v>2</v>
       </c>
-      <c r="F169" s="24">
+      <c r="F169" s="23">
         <v>24</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="25">
+      <c r="G169" s="39"/>
+    </row>
+    <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="24">
         <v>532</v>
       </c>
-      <c r="B170" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C170" s="26" t="s">
+      <c r="B170" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D170" s="27" t="s">
+      <c r="D170" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E170" s="29">
+      <c r="E170" s="28">
         <v>5</v>
       </c>
-      <c r="F170" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="25">
+      <c r="F170" s="28">
+        <v>6</v>
+      </c>
+      <c r="G170" s="39"/>
+    </row>
+    <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="24">
         <v>532</v>
       </c>
-      <c r="B171" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C171" s="26" t="s">
+      <c r="B171" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C171" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D171" s="27" t="s">
+      <c r="D171" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E171" s="29">
+      <c r="E171" s="28">
         <v>2</v>
       </c>
-      <c r="F171" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="30">
+      <c r="F171" s="28">
+        <v>6</v>
+      </c>
+      <c r="G171" s="39"/>
+    </row>
+    <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="29">
         <v>532</v>
       </c>
-      <c r="B172" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C172" s="31" t="s">
+      <c r="B172" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C172" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="32" t="s">
+      <c r="D172" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E172" s="34">
+      <c r="E172" s="33">
         <v>2</v>
       </c>
-      <c r="F172" s="34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F172" s="33">
+        <v>6</v>
+      </c>
+      <c r="G172" s="39"/>
+    </row>
+    <row r="173" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>875</v>
       </c>
@@ -4162,8 +4333,9 @@
       <c r="F173" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G173" s="39"/>
+    </row>
+    <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>875</v>
       </c>
@@ -4182,8 +4354,9 @@
       <c r="F174" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G174" s="39"/>
+    </row>
+    <row r="175" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>875</v>
       </c>
@@ -4202,8 +4375,9 @@
       <c r="F175" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G175" s="39"/>
+    </row>
+    <row r="176" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>875</v>
       </c>
@@ -4222,8 +4396,9 @@
       <c r="F176" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G176" s="39"/>
+    </row>
+    <row r="177" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>875</v>
       </c>
@@ -4242,8 +4417,9 @@
       <c r="F177" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G177" s="39"/>
+    </row>
+    <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>199</v>
       </c>
@@ -4262,8 +4438,9 @@
       <c r="F178" s="3">
         <v>262</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G178" s="39"/>
+    </row>
+    <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>199</v>
       </c>
@@ -4282,8 +4459,9 @@
       <c r="F179" s="3">
         <v>262</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G179" s="39"/>
+    </row>
+    <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>199</v>
       </c>
@@ -4302,8 +4480,9 @@
       <c r="F180" s="3">
         <v>262</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G180" s="39"/>
+    </row>
+    <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>199</v>
       </c>
@@ -4322,8 +4501,9 @@
       <c r="F181" s="3">
         <v>262</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G181" s="39"/>
+    </row>
+    <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>199</v>
       </c>
@@ -4342,8 +4522,9 @@
       <c r="F182" s="3">
         <v>262</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G182" s="39"/>
+    </row>
+    <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>199</v>
       </c>
@@ -4362,8 +4543,9 @@
       <c r="F183" s="3">
         <v>262</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G183" s="39"/>
+    </row>
+    <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>199</v>
       </c>
@@ -4382,8 +4564,9 @@
       <c r="F184" s="3">
         <v>262</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G184" s="39"/>
+    </row>
+    <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>199</v>
       </c>
@@ -4402,8 +4585,9 @@
       <c r="F185" s="3">
         <v>262</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G185" s="39"/>
+    </row>
+    <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>199</v>
       </c>
@@ -4422,8 +4606,9 @@
       <c r="F186" s="3">
         <v>262</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G186" s="39"/>
+    </row>
+    <row r="187" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>199</v>
       </c>
@@ -4442,8 +4627,9 @@
       <c r="F187" s="3">
         <v>262</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G187" s="39"/>
+    </row>
+    <row r="188" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>199</v>
       </c>
@@ -4462,448 +4648,471 @@
       <c r="F188" s="11">
         <v>262</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="20">
+      <c r="G188" s="39"/>
+    </row>
+    <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A189" s="19">
         <v>87</v>
       </c>
-      <c r="B189" s="21" t="s">
+      <c r="B189" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C189" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D189" s="22" t="s">
+      <c r="C189" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E189" s="24">
+      <c r="E189" s="23">
         <v>8</v>
       </c>
-      <c r="F189" s="24">
+      <c r="F189" s="23">
         <v>18</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="20">
+      <c r="G189" s="39"/>
+    </row>
+    <row r="190" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A190" s="19">
         <v>87</v>
       </c>
-      <c r="B190" s="21" t="s">
+      <c r="B190" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C190" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D190" s="22" t="s">
+      <c r="C190" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E190" s="24">
-        <v>7</v>
-      </c>
-      <c r="F190" s="24">
+      <c r="E190" s="23">
+        <v>7</v>
+      </c>
+      <c r="F190" s="23">
         <v>18</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="20">
+      <c r="G190" s="39"/>
+    </row>
+    <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="19">
         <v>87</v>
       </c>
-      <c r="B191" s="21" t="s">
+      <c r="B191" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C191" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D191" s="22" t="s">
+      <c r="C191" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E191" s="24">
+      <c r="E191" s="23">
         <v>3</v>
       </c>
-      <c r="F191" s="24">
+      <c r="F191" s="23">
         <v>18</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="20">
+      <c r="G191" s="39"/>
+    </row>
+    <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" s="19">
         <v>87</v>
       </c>
-      <c r="B192" s="21" t="s">
+      <c r="B192" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C192" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192" s="22" t="s">
+      <c r="C192" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E192" s="24">
+      <c r="E192" s="23">
         <v>2</v>
       </c>
-      <c r="F192" s="24">
+      <c r="F192" s="23">
         <v>18</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A193" s="20">
+      <c r="G192" s="39"/>
+    </row>
+    <row r="193" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" s="19">
         <v>87</v>
       </c>
-      <c r="B193" s="21" t="s">
+      <c r="B193" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C193" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D193" s="22" t="s">
+      <c r="C193" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E193" s="24">
+      <c r="E193" s="23">
         <v>2</v>
       </c>
-      <c r="F193" s="24">
+      <c r="F193" s="23">
         <v>18</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="20">
+      <c r="G193" s="39"/>
+    </row>
+    <row r="194" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="19">
         <v>87</v>
       </c>
-      <c r="B194" s="21" t="s">
+      <c r="B194" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C194" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D194" s="22" t="s">
+      <c r="C194" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E194" s="24">
+      <c r="E194" s="23">
         <v>1</v>
       </c>
-      <c r="F194" s="24">
+      <c r="F194" s="23">
         <v>18</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="25">
+      <c r="G194" s="39"/>
+    </row>
+    <row r="195" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="24">
         <v>87</v>
       </c>
-      <c r="B195" s="26" t="s">
+      <c r="B195" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C195" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D195" s="27" t="s">
+      <c r="C195" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E195" s="29">
+      <c r="E195" s="28">
         <v>35</v>
       </c>
-      <c r="F195" s="29">
+      <c r="F195" s="28">
         <v>39</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="25">
+      <c r="G195" s="39"/>
+    </row>
+    <row r="196" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196" s="24">
         <v>87</v>
       </c>
-      <c r="B196" s="26" t="s">
+      <c r="B196" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C196" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D196" s="27" t="s">
+      <c r="C196" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E196" s="29">
+      <c r="E196" s="28">
         <v>18</v>
       </c>
-      <c r="F196" s="29">
+      <c r="F196" s="28">
         <v>39</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="25">
+      <c r="G196" s="39"/>
+    </row>
+    <row r="197" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A197" s="24">
         <v>87</v>
       </c>
-      <c r="B197" s="26" t="s">
+      <c r="B197" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C197" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D197" s="27" t="s">
+      <c r="C197" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E197" s="29">
+      <c r="E197" s="28">
         <v>10</v>
       </c>
-      <c r="F197" s="29">
+      <c r="F197" s="28">
         <v>39</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A198" s="25">
+      <c r="G197" s="39"/>
+    </row>
+    <row r="198" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A198" s="24">
         <v>87</v>
       </c>
-      <c r="B198" s="26" t="s">
+      <c r="B198" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C198" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D198" s="27" t="s">
+      <c r="C198" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E198" s="29">
+      <c r="E198" s="28">
         <v>17</v>
       </c>
-      <c r="F198" s="29">
+      <c r="F198" s="28">
         <v>39</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A199" s="20">
+      <c r="G198" s="39"/>
+    </row>
+    <row r="199" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A199" s="19">
         <v>87</v>
       </c>
-      <c r="B199" s="21" t="s">
+      <c r="B199" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C199" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D199" s="22" t="s">
+      <c r="C199" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E199" s="24">
+      <c r="E199" s="23">
         <v>9</v>
       </c>
-      <c r="F199" s="24">
+      <c r="F199" s="23">
         <v>35</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A200" s="20">
+      <c r="G199" s="39"/>
+    </row>
+    <row r="200" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A200" s="19">
         <v>87</v>
       </c>
-      <c r="B200" s="21" t="s">
+      <c r="B200" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C200" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D200" s="22" t="s">
+      <c r="C200" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E200" s="24">
+      <c r="E200" s="23">
         <v>5</v>
       </c>
-      <c r="F200" s="24">
+      <c r="F200" s="23">
         <v>35</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" s="20">
+      <c r="G200" s="39"/>
+    </row>
+    <row r="201" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="19">
         <v>87</v>
       </c>
-      <c r="B201" s="21" t="s">
+      <c r="B201" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C201" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D201" s="22" t="s">
+      <c r="C201" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E201" s="24">
+      <c r="E201" s="23">
         <v>5</v>
       </c>
-      <c r="F201" s="24">
+      <c r="F201" s="23">
         <v>35</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A202" s="20">
+      <c r="G201" s="39"/>
+    </row>
+    <row r="202" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A202" s="19">
         <v>87</v>
       </c>
-      <c r="B202" s="21" t="s">
+      <c r="B202" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C202" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D202" s="22" t="s">
+      <c r="C202" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E202" s="24">
+      <c r="E202" s="23">
         <v>8</v>
       </c>
-      <c r="F202" s="24">
+      <c r="F202" s="23">
         <v>35</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="20">
+      <c r="G202" s="39"/>
+    </row>
+    <row r="203" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A203" s="19">
         <v>87</v>
       </c>
-      <c r="B203" s="21" t="s">
+      <c r="B203" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C203" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D203" s="22" t="s">
+      <c r="C203" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E203" s="24">
+      <c r="E203" s="23">
         <v>15</v>
       </c>
-      <c r="F203" s="24">
+      <c r="F203" s="23">
         <v>35</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A204" s="25">
+      <c r="G203" s="39"/>
+    </row>
+    <row r="204" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="24">
         <v>87</v>
       </c>
-      <c r="B204" s="26" t="s">
+      <c r="B204" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C204" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" s="27" t="s">
+      <c r="C204" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E204" s="29">
+      <c r="E204" s="28">
         <v>1</v>
       </c>
-      <c r="F204" s="29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A205" s="25">
+      <c r="F204" s="28">
+        <v>13</v>
+      </c>
+      <c r="G204" s="39"/>
+    </row>
+    <row r="205" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A205" s="24">
         <v>87</v>
       </c>
-      <c r="B205" s="26" t="s">
+      <c r="B205" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C205" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D205" s="27" t="s">
+      <c r="C205" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E205" s="29">
+      <c r="E205" s="28">
         <v>3</v>
       </c>
-      <c r="F205" s="29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A206" s="25">
+      <c r="F205" s="28">
+        <v>13</v>
+      </c>
+      <c r="G205" s="39"/>
+    </row>
+    <row r="206" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A206" s="24">
         <v>87</v>
       </c>
-      <c r="B206" s="26" t="s">
+      <c r="B206" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C206" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D206" s="27" t="s">
+      <c r="C206" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E206" s="29">
+      <c r="E206" s="28">
         <v>1</v>
       </c>
-      <c r="F206" s="29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="25">
+      <c r="F206" s="28">
+        <v>13</v>
+      </c>
+      <c r="G206" s="39"/>
+    </row>
+    <row r="207" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A207" s="24">
         <v>87</v>
       </c>
-      <c r="B207" s="26" t="s">
+      <c r="B207" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C207" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D207" s="27" t="s">
+      <c r="C207" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E207" s="29">
+      <c r="E207" s="28">
         <v>4</v>
       </c>
-      <c r="F207" s="29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A208" s="25">
+      <c r="F207" s="28">
+        <v>13</v>
+      </c>
+      <c r="G207" s="39"/>
+    </row>
+    <row r="208" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="24">
         <v>87</v>
       </c>
-      <c r="B208" s="26" t="s">
+      <c r="B208" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C208" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D208" s="27" t="s">
+      <c r="C208" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E208" s="29">
+      <c r="E208" s="28">
         <v>1</v>
       </c>
-      <c r="F208" s="29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A209" s="25">
+      <c r="F208" s="28">
+        <v>13</v>
+      </c>
+      <c r="G208" s="39"/>
+    </row>
+    <row r="209" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A209" s="24">
         <v>87</v>
       </c>
-      <c r="B209" s="26" t="s">
+      <c r="B209" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C209" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D209" s="27" t="s">
+      <c r="C209" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E209" s="29">
+      <c r="E209" s="28">
         <v>1</v>
       </c>
-      <c r="F209" s="29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A210" s="30">
+      <c r="F209" s="28">
+        <v>13</v>
+      </c>
+      <c r="G209" s="39"/>
+    </row>
+    <row r="210" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A210" s="29">
         <v>87</v>
       </c>
-      <c r="B210" s="31" t="s">
+      <c r="B210" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C210" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D210" s="32" t="s">
+      <c r="C210" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E210" s="34">
+      <c r="E210" s="33">
         <v>3</v>
       </c>
-      <c r="F210" s="34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F210" s="33">
+        <v>13</v>
+      </c>
+      <c r="G210" s="39"/>
+    </row>
+    <row r="211" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>86</v>
       </c>
@@ -4922,8 +5131,9 @@
       <c r="F211" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G211" s="39"/>
+    </row>
+    <row r="212" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>86</v>
       </c>
@@ -4942,8 +5152,9 @@
       <c r="F212" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G212" s="39"/>
+    </row>
+    <row r="213" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>86</v>
       </c>
@@ -4962,8 +5173,9 @@
       <c r="F213" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G213" s="39"/>
+    </row>
+    <row r="214" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>86</v>
       </c>
@@ -4982,8 +5194,9 @@
       <c r="F214" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G214" s="39"/>
+    </row>
+    <row r="215" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>86</v>
       </c>
@@ -5002,8 +5215,9 @@
       <c r="F215" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G215" s="39"/>
+    </row>
+    <row r="216" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>86</v>
       </c>
@@ -5022,528 +5236,555 @@
       <c r="F216" s="11">
         <v>40</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A217" s="20">
+      <c r="G216" s="39"/>
+    </row>
+    <row r="217" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A217" s="19">
         <v>193</v>
       </c>
-      <c r="B217" s="21" t="s">
+      <c r="B217" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C217" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D217" s="22" t="s">
+      <c r="C217" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E217" s="24">
+      <c r="E217" s="23">
         <v>156</v>
       </c>
-      <c r="F217" s="24">
+      <c r="F217" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A218" s="20">
+      <c r="G217" s="39"/>
+    </row>
+    <row r="218" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A218" s="19">
         <v>193</v>
       </c>
-      <c r="B218" s="21" t="s">
+      <c r="B218" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C218" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D218" s="22" t="s">
+      <c r="C218" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E218" s="24">
+      <c r="E218" s="23">
         <v>140</v>
       </c>
-      <c r="F218" s="24">
+      <c r="F218" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A219" s="20">
+      <c r="G218" s="39"/>
+    </row>
+    <row r="219" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A219" s="19">
         <v>193</v>
       </c>
-      <c r="B219" s="21" t="s">
+      <c r="B219" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C219" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D219" s="22" t="s">
+      <c r="C219" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E219" s="24">
+      <c r="E219" s="23">
         <v>143</v>
       </c>
-      <c r="F219" s="24">
+      <c r="F219" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A220" s="20">
+      <c r="G219" s="39"/>
+    </row>
+    <row r="220" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A220" s="19">
         <v>193</v>
       </c>
-      <c r="B220" s="21" t="s">
+      <c r="B220" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C220" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D220" s="22" t="s">
+      <c r="C220" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E220" s="24">
+      <c r="E220" s="23">
         <v>91</v>
       </c>
-      <c r="F220" s="24">
+      <c r="F220" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A221" s="20">
+      <c r="G220" s="39"/>
+    </row>
+    <row r="221" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A221" s="19">
         <v>193</v>
       </c>
-      <c r="B221" s="21" t="s">
+      <c r="B221" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C221" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D221" s="22" t="s">
+      <c r="C221" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E221" s="24">
+      <c r="E221" s="23">
         <v>87</v>
       </c>
-      <c r="F221" s="24">
+      <c r="F221" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222" s="20">
+      <c r="G221" s="39"/>
+    </row>
+    <row r="222" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A222" s="19">
         <v>193</v>
       </c>
-      <c r="B222" s="21" t="s">
+      <c r="B222" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C222" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" s="22" t="s">
+      <c r="C222" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E222" s="24">
+      <c r="E222" s="23">
         <v>133</v>
       </c>
-      <c r="F222" s="24">
+      <c r="F222" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A223" s="20">
+      <c r="G222" s="39"/>
+    </row>
+    <row r="223" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A223" s="19">
         <v>193</v>
       </c>
-      <c r="B223" s="21" t="s">
+      <c r="B223" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C223" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D223" s="22" t="s">
+      <c r="C223" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E223" s="24">
+      <c r="E223" s="23">
         <v>134</v>
       </c>
-      <c r="F223" s="24">
+      <c r="F223" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A224" s="20">
+      <c r="G223" s="39"/>
+    </row>
+    <row r="224" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A224" s="19">
         <v>193</v>
       </c>
-      <c r="B224" s="21" t="s">
+      <c r="B224" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C224" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D224" s="22" t="s">
+      <c r="C224" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E224" s="24">
+      <c r="E224" s="23">
         <v>132</v>
       </c>
-      <c r="F224" s="24">
+      <c r="F224" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A225" s="20">
+      <c r="G224" s="39"/>
+    </row>
+    <row r="225" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A225" s="19">
         <v>193</v>
       </c>
-      <c r="B225" s="21" t="s">
+      <c r="B225" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C225" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D225" s="22" t="s">
+      <c r="C225" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E225" s="24">
+      <c r="E225" s="23">
         <v>132</v>
       </c>
-      <c r="F225" s="24">
+      <c r="F225" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226" s="20">
+      <c r="G225" s="39"/>
+    </row>
+    <row r="226" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A226" s="19">
         <v>193</v>
       </c>
-      <c r="B226" s="21" t="s">
+      <c r="B226" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C226" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D226" s="22" t="s">
+      <c r="C226" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E226" s="24">
+      <c r="E226" s="23">
         <v>123</v>
       </c>
-      <c r="F226" s="24">
+      <c r="F226" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A227" s="20">
+      <c r="G226" s="39"/>
+    </row>
+    <row r="227" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A227" s="19">
         <v>193</v>
       </c>
-      <c r="B227" s="21" t="s">
+      <c r="B227" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C227" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D227" s="22" t="s">
+      <c r="C227" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E227" s="24">
+      <c r="E227" s="23">
         <v>128</v>
       </c>
-      <c r="F227" s="24">
+      <c r="F227" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228" s="20">
+      <c r="G227" s="39"/>
+    </row>
+    <row r="228" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A228" s="19">
         <v>193</v>
       </c>
-      <c r="B228" s="21" t="s">
+      <c r="B228" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C228" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D228" s="22" t="s">
+      <c r="C228" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E228" s="24">
+      <c r="E228" s="23">
         <v>126</v>
       </c>
-      <c r="F228" s="24">
+      <c r="F228" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A229" s="20">
+      <c r="G228" s="39"/>
+    </row>
+    <row r="229" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A229" s="19">
         <v>193</v>
       </c>
-      <c r="B229" s="21" t="s">
+      <c r="B229" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C229" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" s="22" t="s">
+      <c r="C229" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E229" s="24">
+      <c r="E229" s="23">
         <v>129</v>
       </c>
-      <c r="F229" s="24">
+      <c r="F229" s="23">
         <v>160</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A230" s="25">
+      <c r="G229" s="39"/>
+    </row>
+    <row r="230" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A230" s="24">
         <v>193</v>
       </c>
-      <c r="B230" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C230" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D230" s="27" t="s">
+      <c r="B230" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C230" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E230" s="29">
+      <c r="E230" s="28">
         <v>315</v>
       </c>
-      <c r="F230" s="29">
+      <c r="F230" s="28">
         <v>319</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A231" s="25">
+      <c r="G230" s="39"/>
+    </row>
+    <row r="231" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A231" s="24">
         <v>193</v>
       </c>
-      <c r="B231" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C231" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D231" s="27" t="s">
+      <c r="B231" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C231" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E231" s="29">
+      <c r="E231" s="28">
         <v>304</v>
       </c>
-      <c r="F231" s="29">
+      <c r="F231" s="28">
         <v>319</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A232" s="25">
+      <c r="G231" s="39"/>
+    </row>
+    <row r="232" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A232" s="24">
         <v>193</v>
       </c>
-      <c r="B232" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C232" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D232" s="27" t="s">
+      <c r="B232" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C232" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E232" s="29">
+      <c r="E232" s="28">
         <v>303</v>
       </c>
-      <c r="F232" s="29">
+      <c r="F232" s="28">
         <v>319</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A233" s="25">
+      <c r="G232" s="39"/>
+    </row>
+    <row r="233" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A233" s="24">
         <v>193</v>
       </c>
-      <c r="B233" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C233" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D233" s="27" t="s">
+      <c r="B233" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C233" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E233" s="29">
+      <c r="E233" s="28">
         <v>247</v>
       </c>
-      <c r="F233" s="29">
+      <c r="F233" s="28">
         <v>319</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A234" s="25">
+      <c r="G233" s="39"/>
+    </row>
+    <row r="234" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A234" s="24">
         <v>193</v>
       </c>
-      <c r="B234" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C234" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" s="27" t="s">
+      <c r="B234" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C234" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E234" s="29">
+      <c r="E234" s="28">
         <v>202</v>
       </c>
-      <c r="F234" s="29">
+      <c r="F234" s="28">
         <v>319</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A235" s="25">
+      <c r="G234" s="39"/>
+    </row>
+    <row r="235" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A235" s="24">
         <v>193</v>
       </c>
-      <c r="B235" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C235" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" s="27" t="s">
+      <c r="B235" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E235" s="29">
+      <c r="E235" s="28">
         <v>303</v>
       </c>
-      <c r="F235" s="29">
+      <c r="F235" s="28">
         <v>319</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A236" s="25">
+      <c r="G235" s="39"/>
+    </row>
+    <row r="236" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A236" s="24">
         <v>193</v>
       </c>
-      <c r="B236" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C236" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236" s="27" t="s">
+      <c r="B236" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C236" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E236" s="29">
+      <c r="E236" s="28">
         <v>285</v>
       </c>
-      <c r="F236" s="29">
+      <c r="F236" s="28">
         <v>319</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A237" s="25">
+      <c r="G236" s="39"/>
+    </row>
+    <row r="237" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A237" s="24">
         <v>193</v>
       </c>
-      <c r="B237" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C237" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D237" s="27" t="s">
+      <c r="B237" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C237" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D237" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E237" s="29">
+      <c r="E237" s="28">
         <v>286</v>
       </c>
-      <c r="F237" s="29">
+      <c r="F237" s="28">
         <v>319</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A238" s="25">
+      <c r="G237" s="39"/>
+    </row>
+    <row r="238" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A238" s="24">
         <v>193</v>
       </c>
-      <c r="B238" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C238" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" s="27" t="s">
+      <c r="B238" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C238" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E238" s="29">
+      <c r="E238" s="28">
         <v>286</v>
       </c>
-      <c r="F238" s="29">
+      <c r="F238" s="28">
         <v>319</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A239" s="25">
+      <c r="G238" s="39"/>
+    </row>
+    <row r="239" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A239" s="24">
         <v>193</v>
       </c>
-      <c r="B239" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C239" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D239" s="27" t="s">
+      <c r="B239" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C239" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E239" s="29">
+      <c r="E239" s="28">
         <v>245</v>
       </c>
-      <c r="F239" s="29">
+      <c r="F239" s="28">
         <v>319</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A240" s="25">
+      <c r="G239" s="39"/>
+    </row>
+    <row r="240" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A240" s="24">
         <v>193</v>
       </c>
-      <c r="B240" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C240" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D240" s="27" t="s">
+      <c r="B240" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C240" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D240" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E240" s="29">
+      <c r="E240" s="28">
         <v>281</v>
       </c>
-      <c r="F240" s="29">
+      <c r="F240" s="28">
         <v>319</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A241" s="25">
+      <c r="G240" s="39"/>
+    </row>
+    <row r="241" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A241" s="24">
         <v>193</v>
       </c>
-      <c r="B241" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C241" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D241" s="27" t="s">
+      <c r="B241" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C241" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E241" s="29">
+      <c r="E241" s="28">
         <v>277</v>
       </c>
-      <c r="F241" s="29">
+      <c r="F241" s="28">
         <v>319</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A242" s="30">
+      <c r="G241" s="39"/>
+    </row>
+    <row r="242" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A242" s="29">
         <v>193</v>
       </c>
-      <c r="B242" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C242" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D242" s="32" t="s">
+      <c r="B242" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C242" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E242" s="34">
+      <c r="E242" s="33">
         <v>280</v>
       </c>
-      <c r="F242" s="34">
+      <c r="F242" s="33">
         <v>319</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G242" s="39"/>
+    </row>
+    <row r="243" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>42</v>
       </c>
@@ -5562,8 +5803,9 @@
       <c r="F243" s="3">
         <v>443</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G243" s="39"/>
+    </row>
+    <row r="244" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>42</v>
       </c>
@@ -5582,8 +5824,9 @@
       <c r="F244" s="3">
         <v>443</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G244" s="39"/>
+    </row>
+    <row r="245" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>42</v>
       </c>
@@ -5602,8 +5845,9 @@
       <c r="F245" s="3">
         <v>443</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G245" s="39"/>
+    </row>
+    <row r="246" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>42</v>
       </c>
@@ -5622,8 +5866,9 @@
       <c r="F246" s="3">
         <v>443</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G246" s="39"/>
+    </row>
+    <row r="247" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>42</v>
       </c>
@@ -5642,8 +5887,9 @@
       <c r="F247" s="3">
         <v>443</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G247" s="39"/>
+    </row>
+    <row r="248" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>42</v>
       </c>
@@ -5662,8 +5908,9 @@
       <c r="F248" s="3">
         <v>443</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G248" s="39"/>
+    </row>
+    <row r="249" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>42</v>
       </c>
@@ -5682,8 +5929,9 @@
       <c r="F249" s="3">
         <v>443</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G249" s="39"/>
+    </row>
+    <row r="250" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>42</v>
       </c>
@@ -5702,8 +5950,9 @@
       <c r="F250" s="3">
         <v>443</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G250" s="39"/>
+    </row>
+    <row r="251" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>42</v>
       </c>
@@ -5722,8 +5971,9 @@
       <c r="F251" s="3">
         <v>443</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G251" s="39"/>
+    </row>
+    <row r="252" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>42</v>
       </c>
@@ -5742,8 +5992,9 @@
       <c r="F252" s="3">
         <v>443</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G252" s="39"/>
+    </row>
+    <row r="253" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>42</v>
       </c>
@@ -5762,8 +6013,9 @@
       <c r="F253" s="3">
         <v>443</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G253" s="39"/>
+    </row>
+    <row r="254" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
         <v>42</v>
       </c>
@@ -5782,8 +6034,9 @@
       <c r="F254" s="11">
         <v>443</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G254" s="39"/>
+    </row>
+    <row r="255" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>43</v>
       </c>
@@ -5802,8 +6055,9 @@
       <c r="F255" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G255" s="39"/>
+    </row>
+    <row r="256" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>43</v>
       </c>
@@ -5822,8 +6076,9 @@
       <c r="F256" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G256" s="39"/>
+    </row>
+    <row r="257" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>43</v>
       </c>
@@ -5842,8 +6097,9 @@
       <c r="F257" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G257" s="39"/>
+    </row>
+    <row r="258" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>43</v>
       </c>
@@ -5862,8 +6118,9 @@
       <c r="F258" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G258" s="39"/>
+    </row>
+    <row r="259" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>43</v>
       </c>
@@ -5882,8 +6139,9 @@
       <c r="F259" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G259" s="39"/>
+    </row>
+    <row r="260" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>43</v>
       </c>
@@ -5902,8 +6160,9 @@
       <c r="F260" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G260" s="39"/>
+    </row>
+    <row r="261" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>43</v>
       </c>
@@ -5922,8 +6181,9 @@
       <c r="F261" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G261" s="39"/>
+    </row>
+    <row r="262" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>43</v>
       </c>
@@ -5942,8 +6202,9 @@
       <c r="F262" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G262" s="39"/>
+    </row>
+    <row r="263" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>43</v>
       </c>
@@ -5962,8 +6223,9 @@
       <c r="F263" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G263" s="39"/>
+    </row>
+    <row r="264" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>43</v>
       </c>
@@ -5982,8 +6244,9 @@
       <c r="F264" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G264" s="39"/>
+    </row>
+    <row r="265" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>43</v>
       </c>
@@ -6002,8 +6265,9 @@
       <c r="F265" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G265" s="39"/>
+    </row>
+    <row r="266" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>43</v>
       </c>
@@ -6022,8 +6286,9 @@
       <c r="F266" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G266" s="39"/>
+    </row>
+    <row r="267" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>43</v>
       </c>
@@ -6042,8 +6307,9 @@
       <c r="F267" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G267" s="39"/>
+    </row>
+    <row r="268" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>43</v>
       </c>
@@ -6062,8 +6328,9 @@
       <c r="F268" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G268" s="39"/>
+    </row>
+    <row r="269" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>43</v>
       </c>
@@ -6082,8 +6349,9 @@
       <c r="F269" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G269" s="39"/>
+    </row>
+    <row r="270" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>43</v>
       </c>
@@ -6102,8 +6370,9 @@
       <c r="F270" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G270" s="39"/>
+    </row>
+    <row r="271" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>43</v>
       </c>
@@ -6122,8 +6391,9 @@
       <c r="F271" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G271" s="39"/>
+    </row>
+    <row r="272" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>43</v>
       </c>
@@ -6142,8 +6412,9 @@
       <c r="F272" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G272" s="39"/>
+    </row>
+    <row r="273" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>43</v>
       </c>
@@ -6162,8 +6433,9 @@
       <c r="F273" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G273" s="39"/>
+    </row>
+    <row r="274" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
         <v>43</v>
       </c>
@@ -6182,6 +6454,7 @@
       <c r="F274" s="11">
         <v>52</v>
       </c>
+      <c r="G274" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
